--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-843023.7798974902</v>
+        <v>-845704.6429608988</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>81.28104349636175</v>
       </c>
       <c r="F2" t="n">
-        <v>18.42977678916172</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>132.861189695974</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>93.89254046638156</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.49298124446105</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>157.1613342348218</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>302.0457635383894</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>120.3002790073974</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>8.149556320553469</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>153.989540589186</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>87.156928221071</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>127.1347441235476</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>160.2767737688483</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>5.890337106877586</v>
+        <v>197.8978701314612</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,13 +1661,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>38.76543552489165</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>12.96996784159794</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>39.83255574579454</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058143</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>106.9094576655913</v>
       </c>
       <c r="D22" t="n">
-        <v>96.03245356584297</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286391</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>113.7076464771378</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>82.5214078207332</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261729</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600553</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261729</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>856.000266160924</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>856.000266160924</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="D2" t="n">
-        <v>856.000266160924</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="E2" t="n">
-        <v>856.000266160924</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2303.4368990115</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2303.4368990115</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1972.37401166793</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1619.605356397816</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1246.139598136736</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>856.000266160924</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252733</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.90341785788</v>
+        <v>1387.807075285521</v>
       </c>
       <c r="C4" t="n">
-        <v>689.90341785788</v>
+        <v>1218.870892357614</v>
       </c>
       <c r="D4" t="n">
-        <v>539.7867784455442</v>
+        <v>1218.870892357614</v>
       </c>
       <c r="E4" t="n">
-        <v>391.8736848631511</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>244.9837373652407</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>76.99727267351932</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>76.99727267351932</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.34446183165</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.5518826881197</v>
+        <v>1569.455540115761</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.810682795505</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.848165855094</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>1488.848165855094</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1103.059913256849</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>692.0740084672418</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>276.3692581915307</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1592.734861342021</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795505</v>
+        <v>1592.734861342021</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.810682795505</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>458.7060632252731</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>992.7400516038704</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880306</v>
+        <v>738.0555633979835</v>
       </c>
       <c r="W7" t="n">
-        <v>981.8280128167645</v>
+        <v>738.0555633979835</v>
       </c>
       <c r="X7" t="n">
-        <v>981.8280128167645</v>
+        <v>738.0555633979835</v>
       </c>
       <c r="Y7" t="n">
-        <v>981.8280128167645</v>
+        <v>517.2629842544534</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1649.06504140133</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.102524460918</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>921.8368258541677</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>921.8368258541677</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>510.8509210645602</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.53079966241</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.06504140133</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y8" t="n">
-        <v>1649.06504140133</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781438</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
         <v>2175.502629736639</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1048.115628253779</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>879.1794453258717</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>729.062805913536</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>581.1497123311428</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>434.2597648332325</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1175.338234670296</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253779</v>
+        <v>1175.338234670296</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253779</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="W10" t="n">
-        <v>1048.115628253779</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="X10" t="n">
-        <v>1048.115628253779</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>1048.115628253779</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>1997.16570697094</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1708.090480315137</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1453.405992109251</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1163.98882207229</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>935.9992711742725</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.691883631198</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,10 +5440,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2433.862105962484</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614378</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,19 +5522,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2156.827640693835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1867.752414038033</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V19" t="n">
-        <v>1613.067925832146</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1323.650755795185</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1095.661204897168</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>709.4207169875</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297717</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
         <v>550.637687073287</v>
@@ -6376,10 +6376,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2332.106875017495</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2112.505410040436</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.106123115829</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.421634909942</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.004464872981</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.014913974964</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,31 +6716,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,10 +7597,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380722</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,16 +7840,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>35.91627445172441</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>35.91627445172418</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471566</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.5240487471571</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-4.923534065933035e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>300.6493265759</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>401.1636184526431</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>73.79699528425971</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229321</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.5151132204107</v>
+        <v>19.5075801958271</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>128.4813855737362</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>53.40527886852374</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>177.5728945814937</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>60.33736343303656</v>
       </c>
       <c r="D22" t="n">
-        <v>52.58301945236938</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>62.35543909864916</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>67.31863952450679</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-6.699085858273953e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.3549837539</v>
+        <v>186177.354983754</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
@@ -26341,16 +26341,16 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.486712678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.486712678</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960678</v>
+        <v>50904.45160960675</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26424,7 +26424,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26433,31 +26433,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.36846171965</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719668</v>
-      </c>
       <c r="J4" t="n">
-        <v>7507.368461719641</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719641</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481319</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.2277248132</v>
       </c>
       <c r="N4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.2277248131</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1072416.652641617</v>
+        <v>-1072776.735657335</v>
       </c>
       <c r="C6" t="n">
-        <v>-265.1492739112</v>
+        <v>-265.1492739111127</v>
       </c>
       <c r="D6" t="n">
-        <v>-265.1492739110836</v>
+        <v>-265.1492739111127</v>
       </c>
       <c r="E6" t="n">
-        <v>-394150.0249954207</v>
+        <v>-394184.7629208567</v>
       </c>
       <c r="F6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.6787036892</v>
       </c>
       <c r="G6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.678703689</v>
       </c>
       <c r="H6" t="n">
-        <v>113335.4166291248</v>
+        <v>113300.6787036893</v>
       </c>
       <c r="I6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.6787036892</v>
       </c>
       <c r="J6" t="n">
-        <v>-54269.76118085768</v>
+        <v>-54304.49910629335</v>
       </c>
       <c r="K6" t="n">
-        <v>113335.416629125</v>
+        <v>113300.6787036894</v>
       </c>
       <c r="L6" t="n">
-        <v>87696.42514031782</v>
+        <v>87696.42514031769</v>
       </c>
       <c r="M6" t="n">
-        <v>-25483.15059497711</v>
+        <v>-25483.1505949772</v>
       </c>
       <c r="N6" t="n">
+        <v>107124.1431339496</v>
+      </c>
+      <c r="O6" t="n">
         <v>107124.1431339495</v>
-      </c>
-      <c r="O6" t="n">
-        <v>107124.1431339498</v>
       </c>
       <c r="P6" t="n">
         <v>107124.1431339495</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>388.4462689525497</v>
+        <v>5.71242728906833</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.54142218018761</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>79.30361395943952</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>143.8572183275836</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>47.19520517902362</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>165.9268751138032</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>278.3734420160375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>257.5581621837679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>240.5953302490639</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>39.17185592125659</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>60.47192222836364</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28381,13 +28381,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32567,13 +32567,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R21" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33020,31 +33020,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>222.5037706952093</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>222.503770695209</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L6" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291972</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>590.9487307432801</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36215,13 +36215,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
